--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value576.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value576.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.960466768342916</v>
+        <v>1.133320331573486</v>
       </c>
       <c r="B1">
-        <v>2.527293346056157</v>
+        <v>2.202712059020996</v>
       </c>
       <c r="C1">
-        <v>2.616385763783243</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>0.9261491167798738</v>
+        <v>2.251590490341187</v>
       </c>
       <c r="E1">
-        <v>0.7538237701028269</v>
+        <v>1.083869338035583</v>
       </c>
     </row>
   </sheetData>
